--- a/data/trans_camb/P1002-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1002-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.2430191686001115</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9942117489023634</v>
+        <v>0.9942117489023641</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.035528034213371</v>
@@ -655,7 +655,7 @@
         <v>-0.1334923698490607</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1.128261123597089</v>
+        <v>1.128261123597087</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.7172626859518596</v>
@@ -664,7 +664,7 @@
         <v>0.208046286562643</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.24699676166652</v>
+        <v>1.246996761666519</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.033743915982931</v>
+        <v>-2.018589937204566</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.127386744936436</v>
+        <v>-2.218926195710512</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.301187658827544</v>
+        <v>-1.371724386932317</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.975027263775185</v>
+        <v>-3.233057576665671</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.696333941603681</v>
+        <v>-4.114361745297306</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.710383393025284</v>
+        <v>-2.291897014672491</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.442880876164426</v>
+        <v>-1.452466736572965</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.050261102613108</v>
+        <v>-1.884431675382406</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.6729579569445268</v>
+        <v>-0.6778234403763637</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.258918303779599</v>
+        <v>3.054710813231905</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.821351056817034</v>
+        <v>3.145024766695318</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.374180267712914</v>
+        <v>3.268300952688025</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.252744105677837</v>
+        <v>4.992817590512123</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.673485730659345</v>
+        <v>3.412848809360448</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.521870184293011</v>
+        <v>4.684352208724669</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.95329457007045</v>
+        <v>3.042533743490082</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.170572509494513</v>
+        <v>2.569481227669966</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.236178643091669</v>
+        <v>3.290896382708356</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.06835693662099929</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.2796539462259543</v>
+        <v>0.2796539462259545</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1721270873575942</v>
@@ -760,7 +760,7 @@
         <v>-0.0221893102334369</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1875413263254614</v>
+        <v>0.1875413263254612</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1586103979321035</v>
@@ -769,7 +769,7 @@
         <v>0.04600588451942973</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2757520451875927</v>
+        <v>0.2757520451875923</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4546766584582971</v>
+        <v>-0.4488059489346856</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4805844481768043</v>
+        <v>-0.4871281312610373</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3069266819829797</v>
+        <v>-0.3212007054240595</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4074676958221159</v>
+        <v>-0.4152773784005998</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4729555577005127</v>
+        <v>-0.4915854232788572</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3196584324962926</v>
+        <v>-0.2950487977290625</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2624125891185842</v>
+        <v>-0.2763179614007235</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3835651656994006</v>
+        <v>-0.346250647027978</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1195376274739433</v>
+        <v>-0.1461896814138892</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.369152087729494</v>
+        <v>1.416168966037726</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.1800959924402</v>
+        <v>1.251334379811423</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.449058947616495</v>
+        <v>1.266088597435238</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.319957773029262</v>
+        <v>1.27886700605414</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9589402066146979</v>
+        <v>0.8390503118681918</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.131648510166374</v>
+        <v>1.144864323340483</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.83100550866725</v>
+        <v>0.8991378808016786</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6290426917972964</v>
+        <v>0.7134780113519921</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9510351612412139</v>
+        <v>0.9751118715782907</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-0.6885587795217536</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.04462930351516112</v>
+        <v>-0.04462930351516181</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.938024574672942</v>
+        <v>-1.583842718810303</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.713205270990466</v>
+        <v>-2.534343865394541</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.484920316009138</v>
+        <v>-3.712119271619056</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.936118951483672</v>
+        <v>-2.258057886640816</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.469519562066131</v>
+        <v>-5.673080164496088</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.805473064842197</v>
+        <v>-2.248116167030351</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.9168878209940889</v>
+        <v>-1.272197394550575</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.871820045497041</v>
+        <v>-3.192504201780822</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.387308622164509</v>
+        <v>-2.328454158733036</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.596555799513443</v>
+        <v>4.595479619575768</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.304203733394477</v>
+        <v>3.734931596980291</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.527801133905387</v>
+        <v>1.519000799399307</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.820785207454561</v>
+        <v>6.71269454642395</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.729127791314626</v>
+        <v>1.726855601776284</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.711880853017351</v>
+        <v>4.973865689574168</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.29151952629165</v>
+        <v>4.33652536538742</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.964553113760539</v>
+        <v>1.507706735252379</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.216007156523235</v>
+        <v>2.157962334718964</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.1286477555708154</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.008338372700587708</v>
+        <v>-0.008338372700587838</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3774684466741342</v>
+        <v>-0.3435448239350474</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.495987544960452</v>
+        <v>-0.5227365610688562</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6811340729965903</v>
+        <v>-0.6866989606305823</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2302958050612124</v>
+        <v>-0.269733644480486</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6064495017295757</v>
+        <v>-0.6199974332298813</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2879559303407224</v>
+        <v>-0.2432890889541196</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.146803355727625</v>
+        <v>-0.1891613971937814</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4388589178254022</v>
+        <v>-0.4844415139466742</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3470396731996004</v>
+        <v>-0.3403872641696635</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.221901288086415</v>
+        <v>2.49896691419379</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.633154396095946</v>
+        <v>1.700751370049045</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7997149214009361</v>
+        <v>0.8259212875148979</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.252152544376619</v>
+        <v>1.311268421060234</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3544890666650014</v>
+        <v>0.3720816081731855</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.884102334087512</v>
+        <v>1.002321788550329</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.013072426461483</v>
+        <v>1.039887323861157</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4988013116753906</v>
+        <v>0.3726548932817486</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5489553107783309</v>
+        <v>0.5470831622796307</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.8929589292417834</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.720875735947983</v>
+        <v>2.72087573594798</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>6.784190326702437</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1989342738393725</v>
+        <v>0.4815447973558599</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.773664293722945</v>
+        <v>-1.994417437414278</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3721341889372778</v>
+        <v>-0.5347931957919998</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09096760001319494</v>
+        <v>-0.247894415889433</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.222350392140762</v>
+        <v>-2.18530585636568</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.601037234234093</v>
+        <v>-7.169376821117672</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.59247155928765</v>
+        <v>1.901505560011242</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.079846818378401</v>
+        <v>-0.8671661453708074</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.3524779792312064</v>
+        <v>-0.6324396952470497</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.274567036729575</v>
+        <v>6.53955322332128</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.847056955569667</v>
+        <v>3.757754366500029</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.205663382235679</v>
+        <v>5.875395206228143</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.15978767638082</v>
+        <v>12.88974152148113</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.32116577296501</v>
+        <v>12.64467794308064</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.907022423437017</v>
+        <v>4.717389908277637</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.203118992186358</v>
+        <v>7.421642686343591</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.49099637224719</v>
+        <v>4.855680248694439</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.052206857846589</v>
+        <v>4.59339555921015</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1730369525216179</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.527249384177414</v>
+        <v>0.5272493841774134</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.676989572628708</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.01170438112656902</v>
+        <v>0.06832287844104119</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2798132305899622</v>
+        <v>-0.3076130156148673</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.07234505634388007</v>
+        <v>-0.09080815820684167</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.006877931360777888</v>
+        <v>-0.02348136057650407</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2921338860607715</v>
+        <v>-0.1906595987030537</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4857682242939385</v>
+        <v>-0.4919263481899775</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1650970793943899</v>
+        <v>0.2196426404941022</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1457096159873678</v>
+        <v>-0.1442191266355725</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.06033077925076714</v>
+        <v>-0.09476407689967364</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.490773023793583</v>
+        <v>1.645362080364217</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9690607026253234</v>
+        <v>0.9461384810617911</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.462941829064362</v>
+        <v>1.458782275104028</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.949461990924395</v>
+        <v>2.025564694751898</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.61060739242127</v>
+        <v>1.970289069195661</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7598584258138003</v>
+        <v>0.7726497665581997</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.407725077276693</v>
+        <v>1.450165290701102</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.9065370850535619</v>
+        <v>0.9357309069559182</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9870431398835092</v>
+        <v>0.886488253591914</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.4806065883656136</v>
+        <v>-0.2827180001881578</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.130469321341888</v>
+        <v>-3.121921632355475</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.297632640851522</v>
+        <v>-2.308461773653516</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.02246483254293648</v>
+        <v>0.3751901406827589</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.619468295594629</v>
+        <v>-1.465384507982635</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.053621621514648</v>
+        <v>-3.233917278190107</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6320931305409931</v>
+        <v>0.6477751427898846</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.703010162246847</v>
+        <v>-1.697580444348333</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.033506996584816</v>
+        <v>-1.874142632476243</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.833995934037572</v>
+        <v>4.128996661980762</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7230942366981662</v>
+        <v>0.6382490271076751</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.709649708417242</v>
+        <v>1.703741564822491</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.770580927242609</v>
+        <v>6.748233091602189</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.45875771995029</v>
+        <v>4.514638698161054</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.977040680233302</v>
+        <v>1.985535593542506</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.474001371744605</v>
+        <v>4.294110963815567</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.770118529395189</v>
+        <v>1.623645579375559</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.160008133320265</v>
+        <v>1.149932633673848</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.06386029369347807</v>
+        <v>-0.04853889328743966</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4046262440140819</v>
+        <v>-0.4212801579137055</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2920642125602527</v>
+        <v>-0.3118560853606672</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.004790011077798726</v>
+        <v>0.03114031419232581</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1593140813833269</v>
+        <v>-0.143647356066494</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3154990287799457</v>
+        <v>-0.3214296291369336</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07318989743934476</v>
+        <v>0.07823595860738285</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2028498445780866</v>
+        <v>-0.2102530848114348</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2448473083749624</v>
+        <v>-0.2289305930660972</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6730413044074354</v>
+        <v>0.7203431376748096</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1319315988987809</v>
+        <v>0.1219126002004342</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3050918549147585</v>
+        <v>0.2997968004030057</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9634083170024611</v>
+        <v>0.9425532691083175</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6602589804685147</v>
+        <v>0.6280236457898274</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2972624827364122</v>
+        <v>0.2656606522401134</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6837690754327683</v>
+        <v>0.6624010326321854</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2755651982427162</v>
+        <v>0.2608121613301774</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1810732212982218</v>
+        <v>0.1817803683431617</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>1.526585709514104</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.017683465555426</v>
+        <v>1.017683465555425</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>10.1311302790695</v>
@@ -1511,7 +1511,7 @@
         <v>5.829116605357261</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>4.695318619849788</v>
+        <v>4.695318619849785</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>5.978739155949871</v>
@@ -1520,7 +1520,7 @@
         <v>3.628168228206803</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>3.123750026395943</v>
+        <v>3.123750026395941</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.657982811562763</v>
+        <v>-3.373641173588461</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.783081093028172</v>
+        <v>-1.908177858810421</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.666389882453568</v>
+        <v>-2.043738167413145</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.376349559651054</v>
+        <v>6.347883316906796</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.140100741861968</v>
+        <v>2.457087977201891</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.520277081815769</v>
+        <v>1.414136955380053</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.086944576666343</v>
+        <v>3.454568975298047</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.138497115002553</v>
+        <v>1.126118593809822</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.7246164166944111</v>
+        <v>0.972627326006815</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.084367222566702</v>
+        <v>3.015609820168663</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.652020683593994</v>
+        <v>4.563959004251981</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.128701118122557</v>
+        <v>3.973826143997278</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13.98358695059544</v>
+        <v>13.80729709114622</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.137178897462967</v>
+        <v>9.206548546714794</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.846107091080841</v>
+        <v>7.722554415039165</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.571774002939083</v>
+        <v>8.784245990686673</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.285871426443894</v>
+        <v>6.088284852018773</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.569994748429044</v>
+        <v>5.28115628523136</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.2614336073419456</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1742821630480811</v>
+        <v>0.1742821630480808</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>1.130105579745896</v>
@@ -1616,7 +1616,7 @@
         <v>0.650225297597173</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5237525947069744</v>
+        <v>0.5237525947069741</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.7691734742981771</v>
@@ -1625,7 +1625,7 @@
         <v>0.4667691111178303</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4018749769758537</v>
+        <v>0.4018749769758536</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4735041564959682</v>
+        <v>-0.4384487968115454</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2556560402024581</v>
+        <v>-0.2677795455827413</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3308734554005939</v>
+        <v>-0.2701337245942579</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.5945145882098232</v>
+        <v>0.5484371526436593</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2098979132490366</v>
+        <v>0.205594894317246</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1500235346136535</v>
+        <v>0.134943679836933</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3419925557076423</v>
+        <v>0.3613673572641045</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.126025826263978</v>
+        <v>0.1189866285324187</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.07537656346446589</v>
+        <v>0.09391556211619868</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7751004801543681</v>
+        <v>0.7434961648806987</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.199876710587023</v>
+        <v>1.104786700267671</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.122043827522418</v>
+        <v>1.051892149591255</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.968538927496166</v>
+        <v>1.997724681324796</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.282411996463622</v>
+        <v>1.292198945356135</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.135735646431106</v>
+        <v>1.085127955485171</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.362181746432707</v>
+        <v>1.340873523544846</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.017071822808861</v>
+        <v>0.965873931401659</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.8847147669241783</v>
+        <v>0.8471121271515312</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>1.810897896270203</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>3.91492823406735</v>
+        <v>3.914928234067348</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.970086895771714</v>
+        <v>-1.941090105181308</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.423765365936908</v>
+        <v>-2.841409356315729</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.502552338719398</v>
+        <v>-2.122043447506229</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.994571611185616</v>
+        <v>2.844131489515989</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.1914550580063085</v>
+        <v>-0.2692862603590296</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>2.055417583437756</v>
+        <v>2.230035695296617</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.469723203386291</v>
+        <v>2.185981261609447</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.1924796464468181</v>
+        <v>-0.4583883309964941</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.602828192189033</v>
+        <v>1.815659613955564</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.562922683677081</v>
+        <v>4.889297043875269</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.525735055579464</v>
+        <v>3.455189596966159</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8.640990958512281</v>
+        <v>7.56313968886594</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8.376581253476852</v>
+        <v>8.358090762001952</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>4.888067380167822</v>
+        <v>5.027554719515573</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.177115112717273</v>
+        <v>7.273199138661885</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.163820265569654</v>
+        <v>7.010219783374098</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.980716759642112</v>
+        <v>3.905634077551299</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>6.326571059448051</v>
+        <v>6.189177578569446</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>0.2295521413224502</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.4962621918689265</v>
+        <v>0.4962621918689263</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4819650851262135</v>
+        <v>-0.4483065622812959</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5546955878990385</v>
+        <v>-0.593302102876648</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4616933400103922</v>
+        <v>-0.5344566773641745</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.2832948219318027</v>
+        <v>0.2761462089517835</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.0225323756549335</v>
+        <v>-0.03070189444480079</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1813322402980267</v>
+        <v>0.2187727829910393</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2769886420788047</v>
+        <v>0.2609694090771297</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.02436583498179586</v>
+        <v>-0.04810253397251232</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.1721975731973141</v>
+        <v>0.1954022651222951</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.381008853424618</v>
+        <v>2.427832730160444</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.995673715981189</v>
+        <v>1.771060519477756</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3.797705015417597</v>
+        <v>3.814798962852187</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.04985342159179</v>
+        <v>1.059463321214407</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.6217012515960694</v>
+        <v>0.628667056353247</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9159729289171203</v>
+        <v>0.9219442396776153</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.019244353082022</v>
+        <v>1.01095770997438</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.5824689142994735</v>
+        <v>0.578150090000587</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.892413503586385</v>
+        <v>0.8935734047798249</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>0.1432231768302192</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0.53276311244417</v>
+        <v>0.5327631124441692</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>5.499364575593516</v>
@@ -1948,7 +1948,7 @@
         <v>1.225746712225692</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>1.381373816365533</v>
+        <v>1.381373816365532</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.3208105613975792</v>
+        <v>0.2115827483681479</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.8495670160872909</v>
+        <v>-0.9889473853961976</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.540544531532689</v>
+        <v>-0.6222174631687654</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3.922451555756946</v>
+        <v>3.856192015795057</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.8397596294842425</v>
+        <v>0.7939057173343452</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.7957838840443687</v>
+        <v>0.9033096909562865</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>2.503535218688467</v>
+        <v>2.507111579161155</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.2743356851274273</v>
+        <v>0.3469293655747313</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.5495778635862919</v>
+        <v>0.5237798688364795</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.590281327174336</v>
+        <v>2.616620244726684</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.37553752270481</v>
+        <v>1.312750683664171</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.634856540848755</v>
+        <v>1.590373299649514</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6.948223532008396</v>
+        <v>7.041632797137141</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.636502942532767</v>
+        <v>3.553045803697657</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>3.396323404150003</v>
+        <v>3.386720805850301</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.502673747444534</v>
+        <v>4.610625008098272</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.144759765468376</v>
+        <v>2.226448323092053</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.219435921622826</v>
+        <v>2.270514896123577</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.02746473839406263</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.1021636290516801</v>
+        <v>0.10216362905168</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.6501637367524971</v>
@@ -2053,7 +2053,7 @@
         <v>0.1786035784881736</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.2012800070128372</v>
+        <v>0.201280007012837</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.04565263003024118</v>
+        <v>0.0367016630347921</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.151529358853007</v>
+        <v>-0.1712403888581807</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.09919595050806332</v>
+        <v>-0.1082928260915553</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.4271470712076011</v>
+        <v>0.4257202744823774</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.09669888843474314</v>
+        <v>0.08993256971887441</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.08331670602667857</v>
+        <v>0.09547001495344244</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3405501066884262</v>
+        <v>0.3399401552944547</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.03882733659324454</v>
+        <v>0.04294325134651411</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.07954944332113965</v>
+        <v>0.07079313765448852</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.5444963454577981</v>
+        <v>0.5664574085162072</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3005727946107495</v>
+        <v>0.2766934855416589</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3480449407038018</v>
+        <v>0.3383641378460213</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.9060366328081628</v>
+        <v>0.8993941843109217</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.4701873959239261</v>
+        <v>0.4565541941096864</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.4255805127020875</v>
+        <v>0.4410316290538068</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6980083746835872</v>
+        <v>0.7375529242044184</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.3447384435770064</v>
+        <v>0.3378640602158104</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.3510466466469264</v>
+        <v>0.3598902641604579</v>
       </c>
     </row>
     <row r="46">
